--- a/biology/Zoologie/Agaristinae/Agaristinae.xlsx
+++ b/biology/Zoologie/Agaristinae/Agaristinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agaristinae sont une sous-famille de lépidoptères de la famille des Noctuidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Agaristinae sont un groupe pantropical[1].
-Ses espèces sont notamment présentes en Europe, aux Amériques, en Afrique australe dont Madagascar, au Népal et en Inde, à Bornéo, à Sumatra, au Japon et en Australie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Agaristinae sont un groupe pantropical.
+Ses espèces sont notamment présentes en Europe, aux Amériques, en Afrique australe dont Madagascar, au Népal et en Inde, à Bornéo, à Sumatra, au Japon et en Australie.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les papillons de cette sous-famille sont principalement de couleur vive et beaucoup d'entre eux sont diurnes[1].
-La vesica du mâle, le ductus bursae de la femelle ainsi que l'organe spécial du tympan constituent les caractères autapomorphiques de cette sous-famille[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les papillons de cette sous-famille sont principalement de couleur vive et beaucoup d'entre eux sont diurnes.
+La vesica du mâle, le ductus bursae de la femelle ainsi que l'organe spécial du tympan constituent les caractères autapomorphiques de cette sous-famille.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles de cette sous-famille se nourrissent principalement sur des plantes dicotylédones, mais aussi sur des monocotylédones. 
-La famille des Vitaceae, bien que très représentée, n'est pas exclusive, et l'on cite également les familles Dilleniaceae, Lauraceae, Onagraceae, Haloragaceae, Portulacaceae, Nyctaginaceae, Cactaceae, Loranthaceae, Boraginaceae, Rubiaceae, Araceae, Smilacaceae et Dioscoreaceae[2]. 
+La famille des Vitaceae, bien que très représentée, n'est pas exclusive, et l'on cite également les familles Dilleniaceae, Lauraceae, Onagraceae, Haloragaceae, Portulacaceae, Nyctaginaceae, Cactaceae, Loranthaceae, Boraginaceae, Rubiaceae, Araceae, Smilacaceae et Dioscoreaceae. 
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon actuellement appelé Agaristinae a été décrit pour la première fois sous le nom d’Agaristides par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833, citant alors le genre type Agarista et l'espèce appelée à l'époque Agarista pales, aujourd'hui connue sous le nom de Rothia pales (Gray, 1832)[3].
-Certains auteurs ne reconnaissent pas cette description et considèrent que la paternité de ce taxon revient à Herrich-Schäffer, qui le cite en 1858 sous le nom d’Agaristoidea[4]. Ils le nomment alors « Agaristinae Herrich-Schäffer, [1858] »[5].
-Actuellement considérés comme une sous-famille de la famille des Noctuidae, les Agaristinae ont été traités par certains auteurs comme une famille distincte (Agaristidae) au sein des Noctuoidea[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon actuellement appelé Agaristinae a été décrit pour la première fois sous le nom d’Agaristides par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833, citant alors le genre type Agarista et l'espèce appelée à l'époque Agarista pales, aujourd'hui connue sous le nom de Rothia pales (Gray, 1832).
+Certains auteurs ne reconnaissent pas cette description et considèrent que la paternité de ce taxon revient à Herrich-Schäffer, qui le cite en 1858 sous le nom d’Agaristoidea. Ils le nomment alors « Agaristinae Herrich-Schäffer,  ».
+Actuellement considérés comme une sous-famille de la famille des Noctuidae, les Agaristinae ont été traités par certains auteurs comme une famille distincte (Agaristidae) au sein des Noctuoidea.
 </t>
         </is>
       </c>
@@ -640,101 +660,103 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Agaristinae comporte plus de 550 espèces[6],[7]. 
-La liste de ses genres fait l'objet de révisions régulières[8],[9],[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Agaristinae comporte plus de 550 espèces,. 
+La liste de ses genres fait l'objet de révisions régulières :
 Acantuerta Hampson, 1907
-Acyclania Dognin, 1911[11]
+Acyclania Dognin, 1911
 Aegocera Latreille, 1809
-Aegoceropsis Karsch, 1895[8],[2]
+Aegoceropsis Karsch, 1895,
 Aethodes Hampson, 1918
 Agarista Leach, 1814
 Agaristodes Hampson, 1908
 Agoma	Kiriakoff, 1977
 Aletopus Jordan, 1926
-Alloasteropetes Kishida &amp; Machijima, 1994[12]
-Alypia Hübner, 1818[5]
-Alypiodes Grote, 1883[5]
+Alloasteropetes Kishida &amp; Machijima, 1994
+Alypia Hübner, 1818
+Alypiodes Grote, 1883
 Ancarista Jordan, 1921
 Andrhippuris Karsch, 1895
-Androloma Grote, 1873[5]
+Androloma Grote, 1873
 Antigodasa Kiriakoff &amp; Viette, 1974
 Apaegocera Hampson, 1905
 Apina	Walker, 1855
 Arctiopais Jordan, 1896
-Argyrolepidia Hampson, 1901[13]
+Argyrolepidia Hampson, 1901
 Arpia	Schaus,	1896
 Arrothia Jordan, 1896
 Asteropetes Hampson, 1901
-Aucula Walker, 1862[7],[11]
-Brephos Hübner, [1813]
-Bergiantina Blas &amp; Navarro, 2010[14]
-Burgena Walker, [1865]
-Caularis Walker, [1858][5]
-Caularisia Becker, 2010[11]
+Aucula Walker, 1862,
+Brephos Hübner, 
+Bergiantina Blas &amp; Navarro, 2010
+Burgena Walker, 
+Caularis Walker, 
+Caularisia Becker, 2010
 Chaetostephana Jordan, 1913
 Charitosemia Kiriakoff, 1955
 Chelonomorpha Motschulsky, 1860
-Chlanidophora Berg, 1877[11]
+Chlanidophora Berg, 1877
 Choeropais Jordan, 1913
 Cisaucula Todd, 1966
-Clemira Becker, 2009[1]
+Clemira Becker, 2009
 Coenotoca Turner, 1903
 Comocrus Jordan, 1896
-Crameria Hübner, [1819]
+Crameria Hübner, 
 Cremnophora Hampson, 1901
 Crinala Jordan, 1896
 Crinocula Jordan, 1896
 Cruria Jordan, 1896
 Cruriopsis Jordan, 1912
-Cyanohypsa Giacomelli, 1911[11]
-Darceta Herrich-Schäffer, [1856]
-Darcetina Felder, 1874[11]
+Cyanohypsa Giacomelli, 1911
+Darceta Herrich-Schäffer, 
+Darcetina Felder, 1874
 Depalpata Rothschild,	1919
 Epischausia Kiriakoff, 1977
-Episteme Hübner, [1820][15]
+Episteme Hübner, 
 Epithisanotia Kiriakoff, 1977
-Erocha Walker, 1854[1]
-Eudryas Boisduval, 1836[5]
-Eupseudomorpha Dyar, 1893[5]
-Euscirrhopterus Grote, 1866[5]
+Erocha Walker, 1854
+Eudryas Boisduval, 1836
+Eupseudomorpha Dyar, 1893
+Euscirrhopterus Grote, 1866
 Eutrichopidia Hampson, 1901
 Exsula Jordan, 1896
-Fleta	Jordan,	1896[15]
-Gerra	Walker,	1865[5],[11]
-Gerrodes Hampson, 1908[5]
-Godasa Walker, [1865]
-Graphelysia Hampson, 1911[11]
+Fleta	Jordan,	1896
+Gerra	Walker,	1865,
+Gerrodes Hampson, 1908
+Godasa Walker, 
+Graphelysia Hampson, 1911
 Hecatesia Boisduval, 1829
 Hemituerta Kiriakoff, 1977
-Heraclia Hübner, [1820]
+Heraclia Hübner, 
 Hespagarista Walker, 1854
 Hoplarista Hampson, 1910
-Hypotuerta Kiriakoff, 1977[16],[17],[8]
+Hypotuerta Kiriakoff, 1977
 Idalima Turner, 1903
-Immetalia Jordan, 1896[13]
-Ipanica Hampson, 1908[15]
+Immetalia Jordan, 1896
+Ipanica Hampson, 1908
 Letaba Dyar, 1912
 Leucogonia Hampson, 1908
 Leucovis Hampson, 1908
-Longicella Jordan, 1896[15]
+Longicella Jordan, 1896
 Lophonotidia Hampson, 1901
-Maikona Matsumura, 1928[18]
+Maikona Matsumura, 1928
 Massaga Walker, 1854
 Melanchroiopsis Dyar,	1918
 Metagarista Walker, 1854
-Mimeusemia Butler, 1875[15]
+Mimeusemia Butler, 1875
 Misa Karsch, 1895
 Mitrophrys Karsch, 1895
 Musurgina Jordan, 1921
-Neotuerta Kiriakoff, 1977[5]
+Neotuerta Kiriakoff, 1977
 Nesaegocera Kiriakoff, 1974
 Omphaloceps Hampson, 1901
-Ophthalmis Hübner, [1819][15]
-Orthia Herrich-Schäffer, [1853]
+Ophthalmis Hübner, 
+Orthia Herrich-Schäffer, 
 Ovios	Walker,	1855
-Oxythaphora Dyar, 1917[11]
+Oxythaphora Dyar, 1917
 Paida	Jordan, 1896
 Paraegocera Hampson, 1901
 Pararothia Kiriakoff, 1974
@@ -755,17 +777,17 @@
 Pseudopais Bartel, 1903
 Pseudospiris Butler, 1895
 Pseudotuerta Kiriakoff, 1977
-Psychomorpha Harris, 1839[5]
+Psychomorpha Harris, 1839
 Radinocera Hampson, 1908
-Rhosus Walker, 1854[11]
+Rhosus Walker, 1854
 Rothia Westwood, 1877
 Saigonita Kiriakoff, 1971
-Sarbanissa Walker, 1865[15]
+Sarbanissa Walker, 1865
 Sarbissa Kiriakoff, 1977
 Schalifrontia Hampson, 1901
 Schausia Karsch, 1895
 Schausilla Kiriakoff, 1974
-Scrobigera Jordan, 1896[15]
+Scrobigera Jordan, 1896
 Seirocastnia Grote, 1866
 Sergiusia Nye, 1980
 Spectronissa Sugi, 1996
@@ -775,7 +797,7 @@
 Tuertella Kiriakoff, 1977
 Vespola Walker, 1867
 Weymeria Karsch, 1895
-Xerociris Cockerell, 1904[5]
+Xerociris Cockerell, 1904
 Zalissa Walker, 1865
 </t>
         </is>
